--- a/database/ValidationDataSet.xlsx
+++ b/database/ValidationDataSet.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,22 +552,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -575,19 +575,19 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -595,99 +595,99 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>2</v>
-      </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
